--- a/test_helper/test_hlj_role_per/hlj_role.xlsx
+++ b/test_helper/test_hlj_role_per/hlj_role.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t xml:space="preserve">230000:黑龙江</t>
   </si>
@@ -85,88 +85,88 @@
     <t xml:space="preserve">230200:齐齐哈尔市</t>
   </si>
   <si>
-    <t xml:space="preserve">230202 :龙沙区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230203 :建华区 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">230204 :铁锋区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230205 :昂昂溪区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230206 :富拉尔基区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230207 :碾子山区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230208 :梅里斯达斡尔族区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230281 :讷河市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230225 :甘南县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230221 :龙江县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230229 :克山县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230230 :克东县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230223 :依安县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230231 :拜泉县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230224 :泰来县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230227 :富裕县</t>
+    <t xml:space="preserve">230202:龙沙区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230203:建华区 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">230204:铁锋区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230205:昂昂溪区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230206:富拉尔基区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230207:碾子山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230208:梅里斯达斡尔族区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230281:讷河市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230225:甘南县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230221:龙江县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230229:克山县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230230:克东县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230223:依安县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230231:拜泉县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230224:泰来县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230227:富裕县</t>
   </si>
   <si>
     <t xml:space="preserve">230300:鸡西市</t>
   </si>
   <si>
-    <t xml:space="preserve">230302 :鸡冠区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230303 :恒山区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230304 :滴道区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230305 :梨树区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230306 :城子河区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230307 :麻山区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230381 :虎林市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230382 :密山市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230321 :鸡东县</t>
+    <t xml:space="preserve">230302:鸡冠区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230303:恒山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230304:滴道区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230305:梨树区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230306:城子河区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230307:麻山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230381:虎林市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230382:密山市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230321:鸡东县</t>
   </si>
   <si>
     <t xml:space="preserve">230400:鹤岗市</t>
   </si>
   <si>
-    <t xml:space="preserve">230402:向阳区</t>
+    <t xml:space="preserve">230402:鹤岗市向阳区</t>
   </si>
   <si>
     <t xml:space="preserve">230403:工农区</t>
@@ -199,9 +199,6 @@
     <t xml:space="preserve">230503:岭东区</t>
   </si>
   <si>
-    <t xml:space="preserve">230504:岭东区</t>
-  </si>
-  <si>
     <t xml:space="preserve">230505:四方台区</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">230524:饶河县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230525:宝清县</t>
   </si>
   <si>
     <t xml:space="preserve">230600:大庆市</t>
@@ -672,10 +666,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,8 +1128,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1146,7 +1139,8 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1194,22 +1188,22 @@
     </row>
     <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1262,8 +1256,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1274,7 +1267,8 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5"/>
+      <c r="B91" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1327,8 +1321,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5"/>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1339,7 +1332,8 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5"/>
+      <c r="B102" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1356,8 +1350,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1368,7 +1361,8 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5"/>
+      <c r="B107" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1421,8 +1415,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5"/>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1433,7 +1426,8 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5"/>
+      <c r="B118" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1462,8 +1456,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5"/>
-      <c r="B123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1474,7 +1467,8 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5"/>
+      <c r="B125" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1527,8 +1521,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5"/>
-      <c r="B134" s="7" t="s">
+      <c r="A134" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1539,7 +1532,8 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5"/>
+      <c r="B136" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1573,17 +1567,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
-      <c r="B142" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5"/>
-      <c r="B143" s="7" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5"/>
@@ -1603,12 +1591,8 @@
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
